--- a/CashFlow/GPN_cashflow.xlsx
+++ b/CashFlow/GPN_cashflow.xlsx
@@ -1046,19 +1046,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5068000000.0</v>
+        <v>-320000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6672000000.0</v>
+        <v>-278575000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5146163000.0</v>
+        <v>-174998000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3476403000.0</v>
+        <v>-177929000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1752940000.0</v>
+        <v>-95091000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>84064000.0</v>
